--- a/biology/Botanique/Kingiodendron/Kingiodendron.xlsx
+++ b/biology/Botanique/Kingiodendron/Kingiodendron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kingiodendron est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire des régions tropicales d'Asie et d'Océanie, qui compte cinq espèces acceptées.
 Ce sont des arbres de grande taille qui poussent dans les forêts pluviales des plaines tropicales, souvent le long des cours d'eau ou dans les plaines inondables
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Kingiodendron », est un hommage à George King (1840-1909), botaniste britannique qui fut directeur du Service de recherche botanique de l'Inde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Kingiodendron », est un hommage à George King (1840-1909), botaniste britannique qui fut directeur du Service de recherche botanique de l'Inde.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (24 septembre 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (24 septembre 2018) :
 Kingiodendron alternifolium (Elmer) Merr. &amp; Rolfe
 Kingiodendron novoguineense Verdc.
 Kingiodendron pinnatum (DC.) Harms
